--- a/biology/Médecine/Claude_Ropartz/Claude_Ropartz.xlsx
+++ b/biology/Médecine/Claude_Ropartz/Claude_Ropartz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Ropartz, né le 29 mai 1929 à Paris et mort le 31 janvier 2000 à Équemauville[1], est un médecin, qui a été de nombreuses années directeur du Centre départemental de transfusion sanguine de Rouen.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Ropartz, né le 29 mai 1929 à Paris et mort le 31 janvier 2000 à Équemauville, est un médecin, qui a été de nombreuses années directeur du Centre départemental de transfusion sanguine de Rouen.
 Dans ce centre il a travaillé avec son équipe sur la structure, l'allotypie, l'isotypie et l'idiotypie des immunoglobulines. Appliquant la technique de Grubb et Laurell (découvreurs du système Gm en 1956), il a découvert en 1961 le système Inv, maintenant appelé Km, porté par les chaînes légères Kappa.
 Il a créé et dirigé un laboratoire de l'INSERM orienté vers la génétique et l'immunologie, ainsi qu'un laboratoire de référence de l'OMS pour les immunoglobulines. Ont également été étudiés dans ce Centre les allotypes de l'albumine, de l'α1-antitrypsine ou système Pi.
 À la suite de ses travaux, et de ses nombreuses publications, il fut nommé Professeur de génétique et d'immunologie à l'Université de Rouen.
